--- a/Documentation/In_outSerre_ESP32.xlsx
+++ b/Documentation/In_outSerre_ESP32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Nwogburu\Desktop\Bloc_3\Systèmes embarqués II\Projet_Industrie_i4.0\Projet Local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Nwogburu\Desktop\Bloc_3\Systèmes embarqués II\Projet_Industrie_i4.0\Projet Git\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6BDF3A-CA12-435D-8F66-241769C85FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79880939-8ED9-419D-BDAB-DC25B5190508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="744" windowWidth="21600" windowHeight="11772" xr2:uid="{2C75E07E-F314-443E-A470-40C590F1E967}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2C75E07E-F314-443E-A470-40C590F1E967}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,131 +406,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ED2F82-E344-4AA3-8A93-F01BDD9F93B5}">
   <dimension ref="A3:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B28"/>
+    <sheetView tabSelected="1" topLeftCell="D45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,18 +991,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="23"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1027,10 +1011,10 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1044,552 +1028,551 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="18" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="19" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="19" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="19" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="51">
+      <c r="A23" s="41"/>
+      <c r="B23" s="29">
         <v>2</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="51" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="51">
+      <c r="A24" s="41"/>
+      <c r="B24" s="29">
         <v>3</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="51" t="s">
+      <c r="D24" s="44"/>
+      <c r="E24" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="19">
+      <c r="A25" s="41"/>
+      <c r="B25" s="12">
         <v>4</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15">
-        <v>1</v>
-      </c>
-      <c r="C26" s="17" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16">
+      <c r="A27" s="41"/>
+      <c r="B27" s="9">
         <v>2</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="18" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="20">
+      <c r="A28" s="41"/>
+      <c r="B28" s="13">
         <v>3</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="18" t="s">
+      <c r="C28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="19" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="24" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="24" t="s">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="41"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
+      <c r="B35" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17" t="s">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="41"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="19" t="s">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="41"/>
+      <c r="B38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="19" t="s">
+      <c r="D38" s="45"/>
+      <c r="E38" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="24" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="41"/>
+      <c r="B39" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="21" t="s">
+      <c r="E39" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="41"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="21" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="41"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="18" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19" t="s">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="41"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="19" t="s">
+      <c r="D42" s="45"/>
+      <c r="E42" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="29">
-        <v>1</v>
-      </c>
-      <c r="C43" s="29" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="41"/>
+      <c r="B43" s="16">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="33">
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="41"/>
+      <c r="B44" s="19">
         <v>2</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="33"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="29">
-        <v>1</v>
-      </c>
-      <c r="C45" s="30" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="41"/>
+      <c r="B45" s="16">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="38"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="39">
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="41"/>
+      <c r="B46" s="23">
         <v>2</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="39">
+      <c r="D46" s="36"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="41"/>
+      <c r="B47" s="23">
         <v>3</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13"/>
-      <c r="B48" s="43">
+      <c r="D47" s="36"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="41"/>
+      <c r="B48" s="19">
         <v>4</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="29">
-        <v>1</v>
-      </c>
-      <c r="C49" s="30" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="16">
+        <v>1</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="32"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14"/>
-      <c r="B50" s="33">
+      <c r="A50" s="42"/>
+      <c r="B50" s="19">
         <v>2</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C51" s="5"/>
@@ -1597,7 +1580,7 @@
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C52" s="10"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
@@ -1623,6 +1606,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D45:D48"/>
@@ -1639,19 +1635,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
